--- a/biology/Histoire de la zoologie et de la botanique/Raymond_Rollinat/Raymond_Rollinat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Raymond_Rollinat/Raymond_Rollinat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre André Marie Raymond Rollinat, né le 2 septembre 1859[1],[2] à Saint-Gaultier (Indre) et mort le 27 décembre 1931 à Argenton-sur-Creuse, est un naturaliste et herpétologiste français. Il passe presque toute sa vie à Argenton-sur-Creuse, ville d'origine de sa famille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre André Marie Raymond Rollinat, né le 2 septembre 1859, à Saint-Gaultier (Indre) et mort le 27 décembre 1931 à Argenton-sur-Creuse, est un naturaliste et herpétologiste français. Il passe presque toute sa vie à Argenton-sur-Creuse, ville d'origine de sa famille.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se passionne très tôt pour les animaux, notamment grâce à l’influence d’un grand-oncle ornithologue amateur. Durant ses études au lycée de Châteauroux, il passe son temps dans la boutique d’un taxidermiste qui lui apprend les techniques de ce métier. Il refuse de partir à Paris étudier la zoologie et préfère rester à Argenton-sur-Creuse où il passe toute sa vie.
 Il se consacre dès lors à l’étude des vertébrés du centre de la France et particulièrement des amphibiens et des reptiles. Il installe un laboratoire dans sa maison et aménage son jardin pour y observer de près la faune. Il fait paraître de nombreuses publications consacrées à l’hibernation, le soin aux jeunes, la ponte et l’embryologie. Il étudie particulièrement Emys orbicularis et fait paraître environ trente publications sur cette espèce. Il installe un nid près de son lit pour pouvoir observer le comportement nocturne de cette espèce. Son ouvrage posthume, La Vie des reptiles de la France centrale paraît en 1934 ; il sera réédité en 1937, 1946 et 1980.
-Rollinat est la figure la plus éminente d’un petit groupe de  naturalistes qui étudient la faune de France, tandis leurs collègues du Muséum national d'histoire naturelle se consacrent à la faune des colonies. Parmi ces naturalistes, il faut citer Fernand Lataste (1847-1934) et Louis François Heron-Royer (1835-1891). Il entretient une correspondance suivie avec les grands herpétologistes de l'époque comme George Albert Boulenger (1858-1937), Willy Wolterstorff (1684-1943) ou le comte Mario Giacinto Peracca (1861-1923). Sa qualité d'autodidacte et la pertinence de ses observations lui valent d’être souvent comparé à Jean-Henri Fabre (1823-1915). Il est nommé en juin 1888 membre de la Société zoologique de France[3].
-Raymond Rollinat joue toute sa vie un rôle très actif dans la vie sociale et culturelle de sa ville. Il tient un journal quotidien des évènements, dont une grande partie a été publiée, et prend chaque jour des photographies[4]. Sa maison d'Argenton-sur-Creuse est devenue la mairie de la ville.
+Rollinat est la figure la plus éminente d’un petit groupe de  naturalistes qui étudient la faune de France, tandis leurs collègues du Muséum national d'histoire naturelle se consacrent à la faune des colonies. Parmi ces naturalistes, il faut citer Fernand Lataste (1847-1934) et Louis François Heron-Royer (1835-1891). Il entretient une correspondance suivie avec les grands herpétologistes de l'époque comme George Albert Boulenger (1858-1937), Willy Wolterstorff (1684-1943) ou le comte Mario Giacinto Peracca (1861-1923). Sa qualité d'autodidacte et la pertinence de ses observations lui valent d’être souvent comparé à Jean-Henri Fabre (1823-1915). Il est nommé en juin 1888 membre de la Société zoologique de France.
+Raymond Rollinat joue toute sa vie un rôle très actif dans la vie sociale et culturelle de sa ville. Il tient un journal quotidien des évènements, dont une grande partie a été publiée, et prend chaque jour des photographies. Sa maison d'Argenton-sur-Creuse est devenue la mairie de la ville.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La pêche à la grenouille verte (rana viridis) dans les environs d'Argenton-sur-Creuse, Société centrale d'agriculture de France, Paris, 1884
 Catalogue des mammifères de la Brenne - Mammalogie du département de l'Indre, Mémoires de la Société zoologique de France, tome II, 1889
 Catalogue des reptiles, batraciens et poissons du département de l'Indre, Société zoologique de France, Paris, 1891
-Les vertébrés sauvages du département de l'Indre, avec René Martin[5], Société d'éditions scientifiques, 1894
+Les vertébrés sauvages du département de l'Indre, avec René Martin, Société d'éditions scientifiques, 1894
 La tortue des étangs de la Brenne (cistudo europeas), Schneider, 1894
 La couleuvre d'Esculape et sa variété dite à quatre raies, Oberthür, Paris, 1901
 "Observations sur la tendance vers l'ovoviviparité chez quelques sauriens et ophidiens de la France centrale", in Mémoires de la Société zoologique de France, 1904, Société zoologique de France, Paris
@@ -564,7 +580,7 @@
 Dressage du lézard des souches en cage et en liberté dans un jardin, Langlois, Châteauroux, 1923
 "Note sur la reproduction du sanglier mâle avec le porc fémelle et sur celle du porc mâle avec le sanglier fémelle", in Revue d'histoire naturelle appliquée, no 11, novembre 1925, Société nationale d'acclimatation de France, Paris
 Jacques, Imprimerie Centrale, Châteauroux, 1931
-La vie des reptiles de la France centrale, Delagrave, 1934, et réédition, 1946 ; réimpression, Société herpétologique de France, 1980[6]
+La vie des reptiles de la France centrale, Delagrave, 1934, et réédition, 1946 ; réimpression, Société herpétologique de France, 1980
 Abbé de Lagarde, Journal de Raymond Rollinat (larges extraits), Le Laboureur, Châteauroux, 1938
 Argenton, 1914-1918, réédition, préface de Michel Sapin, 223 p., Guénégaud, Paris, 1999  (ISBN 2-85023-093-6)
 Joseph Barbotin, Au bord de la Creuse : chansons du pays, préface de Raymond Rollinat, 112 p., réédition, Brunaud, Argenton-sur-Creuse, 1987
